--- a/denovo_literature_gene_protein_list.xlsx
+++ b/denovo_literature_gene_protein_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyrat\Desktop\work\GH_paleoclimate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7719E9A-5D1D-4E1C-BF2B-3084EA44F58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD7D175-2844-4904-A9A0-803F9E3639F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="-16215" windowWidth="25065" windowHeight="14910" xr2:uid="{44C436E5-E188-4C07-9331-9EFC58985806}"/>
+    <workbookView xWindow="8352" yWindow="624" windowWidth="17280" windowHeight="11328" xr2:uid="{44C436E5-E188-4C07-9331-9EFC58985806}"/>
   </bookViews>
   <sheets>
     <sheet name="Genes" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="191">
   <si>
     <t>Source</t>
   </si>
@@ -475,9 +475,6 @@
     <t>[15]</t>
   </si>
   <si>
-    <t>[18]</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1016/j.cell.2018.03.067</t>
   </si>
   <si>
@@ -500,15 +497,6 @@
   </si>
   <si>
     <t>https://doi.org/10.1371/journal.pcbi.1000734</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1098/rstb.2014.0332</t>
-  </si>
-  <si>
-    <t>Cheetham, Seth W., Geoffrey J. Faulkner, and Marcel E. Dinger. "Overcoming challenges and dogmas to understand the functions of pseudogenes." Nature Reviews Genetics 21.3 (2020): 191-201.</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/s41576-019-0196-1</t>
   </si>
   <si>
     <t>Zhang, Wenyu, et al. "New genes drive the evolution of gene interaction networks in the human and mouse genomes." Genome biology 16 (2015): 1-14.</t>
@@ -584,9 +572,6 @@
     </r>
   </si>
   <si>
-    <t>[11, 14]</t>
-  </si>
-  <si>
     <t>Q9NXD8</t>
   </si>
   <si>
@@ -608,61 +593,6 @@
     <t>FLJ33706, C20orf203</t>
   </si>
   <si>
-    <r>
-      <t>[7, 8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
     <t>CD74</t>
   </si>
   <si>
@@ -685,9 +615,6 @@
   </si>
   <si>
     <t>Q3KRB8</t>
-  </si>
-  <si>
-    <t>[17, 18]</t>
   </si>
   <si>
     <t>O43295</t>
@@ -849,36 +776,37 @@
     </r>
   </si>
   <si>
+    <t>Kalebic, Nereo, et al. "Human-specific ARHGAP11B induces hallmarks of neocortical expansion in developing ferret neocortex." Elife 7 (2018): e41241.</t>
+  </si>
+  <si>
+    <t>NYCM, MYCNOS</t>
+  </si>
+  <si>
     <r>
-      <t>McLysaght, Aoife, and Daniele Guerzoni. "New genes from non-coding sequence: the role of de novo protein-coding genes in eukaryotic evolutionary innovation." </t>
+      <t>[7, 8</t>
     </r>
     <r>
       <rPr>
-        <i/>
         <sz val="11"/>
-        <color rgb="FF222222"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Philosophical Transactions of the Royal Society B: Biological Sciences</t>
+      <t>]</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF222222"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> 370.1678 (2015): 20140332.</t>
-    </r>
-  </si>
-  <si>
-    <t>Kalebic, Nereo, et al. "Human-specific ARHGAP11B induces hallmarks of neocortical expansion in developing ferret neocortex." Elife 7 (2018): e41241.</t>
-  </si>
-  <si>
-    <t>NYCM, MYCNOS</t>
+  </si>
+  <si>
+    <t>Suenaga, Yusuke, et al. "NCYM, a Cis-antisense gene of MYCN, encodes a de novo evolved protein that inhibits GSK3β resulting in the stabilization of MYCN in human neuroblastomas." PLoS genetics 10.1 (2014): e1003996.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pgen.1003996</t>
+  </si>
+  <si>
+    <t>[10, 11, 14]</t>
+  </si>
+  <si>
+    <t>[16, 17]</t>
   </si>
 </sst>
 </file>
@@ -1010,54 +938,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1378,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479D1F6B-0338-4CE8-8318-351417951CCD}">
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1399,7 +1325,7 @@
         <v>127</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D1" s="14"/>
       <c r="J1" s="14"/>
@@ -1409,19 +1335,19 @@
       <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" t="s">
         <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -1481,10 +1407,10 @@
         <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D6" s="7"/>
       <c r="F6" s="2"/>
@@ -1500,10 +1426,10 @@
         <v>141</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>176</v>
+        <v>169</v>
+      </c>
+      <c r="C7" t="s">
+        <v>170</v>
       </c>
       <c r="D7" s="7"/>
       <c r="F7" s="2"/>
@@ -1519,10 +1445,10 @@
         <v>141</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>178</v>
+        <v>171</v>
+      </c>
+      <c r="C8" t="s">
+        <v>172</v>
       </c>
       <c r="D8" s="7"/>
       <c r="F8" s="2"/>
@@ -1601,7 +1527,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>41</v>
@@ -1645,7 +1571,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>45</v>
@@ -1776,11 +1702,11 @@
       <c r="N19" s="9"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
-        <v>174</v>
+      <c r="A20" t="s">
+        <v>186</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -1808,10 +1734,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>7</v>
@@ -1852,7 +1778,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D24" s="7"/>
       <c r="F24" s="2"/>
@@ -2066,18 +1992,18 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>95</v>
@@ -2088,7 +2014,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>97</v>
@@ -2099,7 +2025,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>99</v>
@@ -2110,7 +2036,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>101</v>
@@ -2121,7 +2047,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>103</v>
@@ -2132,7 +2058,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>71</v>
@@ -2143,7 +2069,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>105</v>
@@ -2154,7 +2080,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>107</v>
@@ -2165,7 +2091,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>109</v>
@@ -2176,7 +2102,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>111</v>
@@ -2187,7 +2113,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>113</v>
@@ -2198,7 +2124,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>115</v>
@@ -2209,7 +2135,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>117</v>
@@ -2220,7 +2146,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>71</v>
@@ -2231,51 +2157,51 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>63</v>
@@ -2286,7 +2212,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>65</v>
@@ -2297,7 +2223,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>67</v>
@@ -2308,7 +2234,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>69</v>
@@ -2319,7 +2245,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>73</v>
@@ -2330,7 +2256,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>75</v>
@@ -2341,7 +2267,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>77</v>
@@ -2352,7 +2278,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>79</v>
@@ -2363,7 +2289,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>81</v>
@@ -2374,7 +2300,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>83</v>
@@ -2385,7 +2311,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>85</v>
@@ -2396,7 +2322,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>87</v>
@@ -2407,7 +2333,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>89</v>
@@ -2418,7 +2344,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>91</v>
@@ -2429,7 +2355,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>93</v>
@@ -2446,107 +2372,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73653DD-C990-4AC9-94D0-9036B628F6AC}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="17"/>
-    <col min="2" max="2" width="34.44140625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="17"/>
-    <col min="4" max="4" width="8.88671875" style="16"/>
-    <col min="5" max="16384" width="8.88671875" style="17"/>
+    <col min="2" max="2" width="34.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" t="s">
         <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+        <v>157</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" t="s">
         <v>138</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>185</v>
+        <v>146</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>178</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" t="s">
         <v>139</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>186</v>
+        <v>147</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>179</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" t="s">
         <v>140</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>188</v>
+      <c r="C5" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" t="s">
         <v>142</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>189</v>
+        <v>150</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>190</v>
+        <v>151</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -2556,10 +2479,10 @@
         <v>143</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="21" t="s">
         <v>153</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>152</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -2571,7 +2494,7 @@
       <c r="B9" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>121</v>
       </c>
       <c r="D9" s="8"/>
@@ -2582,10 +2505,10 @@
         <v>133</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>191</v>
+        <v>188</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -2595,10 +2518,10 @@
         <v>144</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>154</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -2608,22 +2531,22 @@
         <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>156</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>123</v>
       </c>
       <c r="D13" s="8"/>
@@ -2634,83 +2557,70 @@
         <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>158</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>156</v>
+      <c r="B15" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>125</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>134</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>125</v>
+        <v>136</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>120</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" xr:uid="{D512AB00-D7A7-4915-B260-402FD6C294A6}"/>
+    <hyperlink ref="B17" r:id="rId1" xr:uid="{D512AB00-D7A7-4915-B260-402FD6C294A6}"/>
     <hyperlink ref="B9" r:id="rId2" xr:uid="{76B69CF0-72B0-4D19-8057-E58284905C2E}"/>
-    <hyperlink ref="B16" r:id="rId3" xr:uid="{D8EE0B8F-9C0A-4ACF-8789-B6A2D3BF9F14}"/>
-    <hyperlink ref="B17" r:id="rId4" xr:uid="{866A5387-FF24-43A7-B774-80FCE5201CBF}"/>
+    <hyperlink ref="B15" r:id="rId3" xr:uid="{D8EE0B8F-9C0A-4ACF-8789-B6A2D3BF9F14}"/>
+    <hyperlink ref="B16" r:id="rId4" xr:uid="{866A5387-FF24-43A7-B774-80FCE5201CBF}"/>
     <hyperlink ref="B2" r:id="rId5" tooltip="Persistent link using digital object identifier" xr:uid="{9BF743FF-8CA2-4FA5-A1E5-78DB4EF70F64}"/>
     <hyperlink ref="B4" r:id="rId6" xr:uid="{CF13AB91-DEEC-41DB-A53F-8C9B0B839EE0}"/>
     <hyperlink ref="B5" r:id="rId7" xr:uid="{1ED4453B-A84F-4713-A32B-22BAEE95B2B1}"/>
     <hyperlink ref="B6" r:id="rId8" xr:uid="{45B8E480-9396-4C96-9CAE-DA3F7F5DFCD2}"/>
     <hyperlink ref="B7" r:id="rId9" xr:uid="{6061BCEB-4A6A-426B-8675-B266FAFB0366}"/>
     <hyperlink ref="B8" r:id="rId10" xr:uid="{6E03C33E-BA0A-4561-8A48-BA4A56DB1160}"/>
-    <hyperlink ref="B10" r:id="rId11" xr:uid="{194B2A36-65B4-48FE-A069-2E6A61B7AA14}"/>
-    <hyperlink ref="B15" r:id="rId12" xr:uid="{E71EAC71-B9A1-4150-AE8D-DA8D2A4C1F15}"/>
-    <hyperlink ref="B11" r:id="rId13" xr:uid="{E28CCD18-806F-4056-9BE2-4805405797AE}"/>
-    <hyperlink ref="B12" r:id="rId14" xr:uid="{FCE1BC32-73DA-458A-BBE4-946D4B35F1F6}"/>
-    <hyperlink ref="B14" r:id="rId15" xr:uid="{64963126-9C9E-4D70-884D-9315FE95985A}"/>
-    <hyperlink ref="B1" r:id="rId16" xr:uid="{71398CE9-94B9-4A51-B03A-F08CAF16655B}"/>
+    <hyperlink ref="B11" r:id="rId11" xr:uid="{E28CCD18-806F-4056-9BE2-4805405797AE}"/>
+    <hyperlink ref="B12" r:id="rId12" xr:uid="{FCE1BC32-73DA-458A-BBE4-946D4B35F1F6}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{64963126-9C9E-4D70-884D-9315FE95985A}"/>
+    <hyperlink ref="B1" r:id="rId14" xr:uid="{71398CE9-94B9-4A51-B03A-F08CAF16655B}"/>
+    <hyperlink ref="B10" r:id="rId15" xr:uid="{E5D11BF9-C49B-4642-ACAC-1C8948503C6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/denovo_literature_gene_protein_list.xlsx
+++ b/denovo_literature_gene_protein_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyrat\Desktop\work\GH_paleoclimate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F360C25B-CD49-49D6-BE3B-AA05CC12F8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44823182-38E1-40B9-BB38-3689685C2F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3372" yWindow="0" windowWidth="19668" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Genes" sheetId="1" r:id="rId1"/>
@@ -222,9 +222,6 @@
     <t>Q8NBC4</t>
   </si>
   <si>
-    <t>[10, 11, 14]</t>
-  </si>
-  <si>
     <t>NYCM, MYCNOS</t>
   </si>
   <si>
@@ -321,9 +318,6 @@
     <t>P31941</t>
   </si>
   <si>
-    <t>[16]</t>
-  </si>
-  <si>
     <t>ENSG00000145063</t>
   </si>
   <si>
@@ -681,10 +675,16 @@
     <t xml:space="preserve">De novo genes from [16] are not available at the original link and have been obtained via Figure S9 in [15]. </t>
   </si>
   <si>
-    <t>[15, 16]</t>
-  </si>
-  <si>
     <t>Gene Name or ID (as presented in original paper)</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>[9, 10, 11]</t>
+  </si>
+  <si>
+    <t>[14, 15]</t>
   </si>
 </sst>
 </file>
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>1</v>
@@ -1223,10 +1223,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
         <v>71</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1434,13 +1434,13 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="14"/>
@@ -1448,47 +1448,47 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" s="17" customFormat="1">
-      <c r="A19" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-    </row>
-    <row r="20" spans="1:9" s="17" customFormat="1">
-      <c r="A20" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="14"/>
@@ -1498,13 +1498,13 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="14"/>
@@ -1514,13 +1514,13 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="14"/>
@@ -1528,58 +1528,63 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" t="s">
-        <v>56</v>
-      </c>
+    <row r="24" spans="1:9" s="17" customFormat="1">
+      <c r="A24" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:9" s="17" customFormat="1">
+      <c r="A25" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="14"/>
-      <c r="G26" s="9"/>
+      <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="14"/>
@@ -1589,13 +1594,13 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="14"/>
@@ -1605,13 +1610,13 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="14"/>
@@ -1621,215 +1626,210 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>66</v>
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="G31" s="9"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1843,7 +1843,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1857,36 +1857,36 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1896,10 +1896,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -1908,10 +1908,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1921,10 +1921,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1934,124 +1934,124 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="6" t="s">
-        <v>122</v>
+      <c r="A9" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>54</v>
+      <c r="A12" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>129</v>
+        <v>103</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="9" t="s">
-        <v>59</v>
+      <c r="A13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="9" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -2067,11 +2067,11 @@
     <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
     <hyperlink ref="B7" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
     <hyperlink ref="B8" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="B9" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
     <hyperlink ref="B1" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="B9" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="B10" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/denovo_literature_gene_protein_list.xlsx
+++ b/denovo_literature_gene_protein_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyrat\Desktop\work\GH_paleoclimate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44823182-38E1-40B9-BB38-3689685C2F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499FBCC8-2655-4CAA-A124-A46A1BA6426D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Genes" sheetId="1" r:id="rId1"/>
@@ -672,9 +672,6 @@
     <t xml:space="preserve">* This gene maps to two reviewed UniProt proteins. Neither is identified to be emerged during the primate divergence in this work (i.e., does not contribute to the figures) </t>
   </si>
   <si>
-    <t xml:space="preserve">De novo genes from [16] are not available at the original link and have been obtained via Figure S9 in [15]. </t>
-  </si>
-  <si>
     <t>Gene Name or ID (as presented in original paper)</t>
   </si>
   <si>
@@ -685,6 +682,9 @@
   </si>
   <si>
     <t>[14, 15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De novo genes from [15] are not available at the original link and have been obtained via Figure S9 in [14]. </t>
   </si>
 </sst>
 </file>
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A33" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>1</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>59</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>61</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>63</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>65</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>67</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>40</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B46" t="s">
         <v>100</v>
@@ -1842,8 +1842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>128</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:1">

--- a/denovo_literature_gene_protein_list.xlsx
+++ b/denovo_literature_gene_protein_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyrat\Desktop\work\GH_paleoclimate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyrat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499FBCC8-2655-4CAA-A124-A46A1BA6426D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C415145-1077-4F26-A12A-DFCF371ADE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Genes" sheetId="1" r:id="rId1"/>
@@ -143,9 +143,6 @@
     <t>Q9BR46</t>
   </si>
   <si>
-    <t>[7, 16]</t>
-  </si>
-  <si>
     <t>MYEOV</t>
   </si>
   <si>
@@ -685,6 +682,9 @@
   </si>
   <si>
     <t xml:space="preserve">De novo genes from [15] are not available at the original link and have been obtained via Figure S9 in [14]. </t>
+  </si>
+  <si>
+    <t>[7, 14]</t>
   </si>
 </sst>
 </file>
@@ -787,27 +787,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -816,7 +801,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -850,9 +835,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1147,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1164,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>1</v>
@@ -1223,10 +1205,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
         <v>70</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1261,7 +1243,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
@@ -1282,13 +1264,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1302,10 +1284,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1316,13 +1298,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1336,10 +1318,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1353,10 +1335,10 @@
         <v>15</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1370,44 +1352,44 @@
         <v>15</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="16"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="16"/>
+      <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1418,13 +1400,13 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" t="s">
         <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="14"/>
@@ -1434,13 +1416,13 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
         <v>59</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="14"/>
@@ -1450,13 +1432,13 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
         <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="14"/>
@@ -1466,13 +1448,13 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
         <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="14"/>
@@ -1482,13 +1464,13 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
         <v>65</v>
-      </c>
-      <c r="C21" t="s">
-        <v>66</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="14"/>
@@ -1498,13 +1480,13 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
         <v>67</v>
-      </c>
-      <c r="C22" t="s">
-        <v>68</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="14"/>
@@ -1514,13 +1496,13 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
         <v>40</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="14"/>
@@ -1528,47 +1510,47 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" s="17" customFormat="1">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:9" s="16" customFormat="1">
+      <c r="A24" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="1:9" s="16" customFormat="1">
+      <c r="A25" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-    </row>
-    <row r="25" spans="1:9" s="17" customFormat="1">
-      <c r="A25" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
         <v>44</v>
-      </c>
-      <c r="C26" t="s">
-        <v>45</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="14"/>
@@ -1578,13 +1560,13 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
         <v>46</v>
-      </c>
-      <c r="C27" t="s">
-        <v>47</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="14"/>
@@ -1594,13 +1576,13 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
         <v>48</v>
-      </c>
-      <c r="C28" t="s">
-        <v>49</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="14"/>
@@ -1610,13 +1592,13 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" t="s">
         <v>51</v>
-      </c>
-      <c r="C29" t="s">
-        <v>52</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="14"/>
@@ -1626,24 +1608,24 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
         <v>53</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>54</v>
-      </c>
-      <c r="C30" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
         <v>56</v>
-      </c>
-      <c r="C31" t="s">
-        <v>57</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="14"/>
@@ -1653,183 +1635,183 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
         <v>72</v>
-      </c>
-      <c r="C32" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
         <v>74</v>
-      </c>
-      <c r="C33" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
         <v>76</v>
-      </c>
-      <c r="C34" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
         <v>78</v>
-      </c>
-      <c r="C35" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
         <v>80</v>
-      </c>
-      <c r="C36" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
         <v>82</v>
-      </c>
-      <c r="C37" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
         <v>84</v>
-      </c>
-      <c r="C38" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
         <v>86</v>
-      </c>
-      <c r="C39" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
         <v>88</v>
-      </c>
-      <c r="C40" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
         <v>90</v>
-      </c>
-      <c r="C41" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" t="s">
         <v>92</v>
-      </c>
-      <c r="C42" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="s">
         <v>94</v>
-      </c>
-      <c r="C43" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
         <v>96</v>
-      </c>
-      <c r="C44" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" t="s">
         <v>98</v>
-      </c>
-      <c r="C45" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" t="s">
         <v>101</v>
-      </c>
-      <c r="C47" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1842,13 +1824,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="34.44140625" customWidth="1"/>
+    <col min="2" max="2" width="53.88671875" customWidth="1"/>
     <col min="3" max="3" width="8.88671875"/>
   </cols>
   <sheetData>
@@ -1857,36 +1839,36 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
         <v>103</v>
-      </c>
-      <c r="C1" t="s">
-        <v>104</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1896,10 +1878,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -1908,10 +1890,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1921,10 +1903,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1934,124 +1916,124 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>124</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:1">
